--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ccr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H2">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I2">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J2">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N2">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O2">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P2">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q2">
-        <v>0.04461021580399999</v>
+        <v>0.05843454907644444</v>
       </c>
       <c r="R2">
-        <v>0.401491942236</v>
+        <v>0.525910941688</v>
       </c>
       <c r="S2">
-        <v>1.923159471680923E-06</v>
+        <v>1.412490700837917E-06</v>
       </c>
       <c r="T2">
-        <v>1.92479259439069E-06</v>
+        <v>1.420840963727839E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H3">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I3">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J3">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.934284</v>
       </c>
       <c r="O3">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P3">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q3">
-        <v>0.200463712176</v>
+        <v>0.07478652753866666</v>
       </c>
       <c r="R3">
-        <v>1.804173409584</v>
+        <v>0.673078747848</v>
       </c>
       <c r="S3">
-        <v>8.642049356887993E-06</v>
+        <v>1.807753740995463E-06</v>
       </c>
       <c r="T3">
-        <v>8.649388075944567E-06</v>
+        <v>1.818440692044838E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H4">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I4">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J4">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N4">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O4">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P4">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q4">
-        <v>108.73974888882</v>
+        <v>76.41369380024534</v>
       </c>
       <c r="R4">
-        <v>978.6577399993798</v>
+        <v>687.723244202208</v>
       </c>
       <c r="S4">
-        <v>0.004687802429437879</v>
+        <v>0.00184708590406547</v>
       </c>
       <c r="T4">
-        <v>0.004691783251995315</v>
+        <v>0.001858005376222042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H5">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I5">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J5">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N5">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O5">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P5">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q5">
-        <v>0.09471445011</v>
+        <v>0.2279913499883333</v>
       </c>
       <c r="R5">
-        <v>0.56828670066</v>
+        <v>1.36794809993</v>
       </c>
       <c r="S5">
-        <v>4.083167690432111E-06</v>
+        <v>5.511048973933461E-06</v>
       </c>
       <c r="T5">
-        <v>2.724423376542194E-06</v>
+        <v>3.695752536343467E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H6">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I6">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J6">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N6">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O6">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P6">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q6">
-        <v>132.823158716976</v>
+        <v>13.938009476954</v>
       </c>
       <c r="R6">
-        <v>1195.408428452784</v>
+        <v>125.442085292586</v>
       </c>
       <c r="S6">
-        <v>0.005726045282260812</v>
+        <v>0.0003369121364936558</v>
       </c>
       <c r="T6">
-        <v>0.005730907767522856</v>
+        <v>0.0003389038698968269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H7">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I7">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J7">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N7">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O7">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P7">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q7">
-        <v>1.845159279209889</v>
+        <v>0.156632578256</v>
       </c>
       <c r="R7">
-        <v>16.606433512889</v>
+        <v>1.409693204304</v>
       </c>
       <c r="S7">
-        <v>7.954535705819791E-05</v>
+        <v>3.786151578673723E-06</v>
       </c>
       <c r="T7">
-        <v>7.961290596975784E-05</v>
+        <v>3.808534282506226E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H8">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I8">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J8">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.934284</v>
       </c>
       <c r="O8">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P8">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q8">
-        <v>8.291542015657333</v>
+        <v>0.200463712176</v>
       </c>
       <c r="R8">
-        <v>74.62387814091601</v>
+        <v>1.804173409584</v>
       </c>
       <c r="S8">
-        <v>0.0003574508052664908</v>
+        <v>4.845645834172963E-06</v>
       </c>
       <c r="T8">
-        <v>0.0003577543479712436</v>
+        <v>4.874291981409755E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H9">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I9">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J9">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N9">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O9">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P9">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q9">
-        <v>4497.672855085555</v>
+        <v>204.825297074496</v>
       </c>
       <c r="R9">
-        <v>40479.05569577</v>
+        <v>1843.427673670464</v>
       </c>
       <c r="S9">
-        <v>0.1938959943566196</v>
+        <v>0.004951074869006128</v>
       </c>
       <c r="T9">
-        <v>0.1940606483836929</v>
+        <v>0.004980344284174217</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H10">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I10">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J10">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N10">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O10">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P10">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q10">
-        <v>3.9175611089525</v>
+        <v>0.61112601249</v>
       </c>
       <c r="R10">
-        <v>23.505366653715</v>
+        <v>3.66675607494</v>
       </c>
       <c r="S10">
-        <v>0.0001688872070395874</v>
+        <v>1.477225072025498E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001126870826137635</v>
+        <v>9.906386846698182E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H11">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I11">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J11">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N11">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O11">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P11">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q11">
-        <v>5493.80628144419</v>
+        <v>37.360540889532</v>
       </c>
       <c r="R11">
-        <v>49444.25653299772</v>
+        <v>336.244868005788</v>
       </c>
       <c r="S11">
-        <v>0.236839598179935</v>
+        <v>0.0009030858870101453</v>
       </c>
       <c r="T11">
-        <v>0.2370407193724597</v>
+        <v>0.000908424686454446</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H12">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I12">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J12">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N12">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O12">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P12">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q12">
-        <v>0.009214823431</v>
+        <v>14.76092429577822</v>
       </c>
       <c r="R12">
-        <v>0.055288940586</v>
+        <v>132.848318662004</v>
       </c>
       <c r="S12">
-        <v>3.972537375532252E-07</v>
+        <v>0.0003568037853134375</v>
       </c>
       <c r="T12">
-        <v>2.650607202699109E-07</v>
+        <v>0.0003589131127629698</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H13">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I13">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J13">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.934284</v>
       </c>
       <c r="O13">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P13">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q13">
-        <v>0.041408401164</v>
+        <v>18.89153401180933</v>
       </c>
       <c r="R13">
-        <v>0.248450406984</v>
+        <v>170.023806106284</v>
       </c>
       <c r="S13">
-        <v>1.785128304592722E-06</v>
+        <v>0.0004566496454235588</v>
       </c>
       <c r="T13">
-        <v>1.191096141986973E-06</v>
+        <v>0.0004593492345858907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H14">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I14">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J14">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N14">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O14">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P14">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q14">
-        <v>22.461617095605</v>
+        <v>19302.56615603596</v>
       </c>
       <c r="R14">
-        <v>134.76970257363</v>
+        <v>173723.0954043237</v>
       </c>
       <c r="S14">
-        <v>0.0009683268930254669</v>
+        <v>0.4665851902449292</v>
       </c>
       <c r="T14">
-        <v>0.000646099455987287</v>
+        <v>0.4693435156602954</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>60.66100033333333</v>
+      </c>
+      <c r="H15">
+        <v>181.983001</v>
+      </c>
+      <c r="I15">
+        <v>0.553896833491318</v>
+      </c>
+      <c r="J15">
+        <v>0.5567045368793268</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.5</v>
       </c>
-      <c r="G15">
-        <v>0.132963</v>
-      </c>
-      <c r="H15">
-        <v>0.265926</v>
-      </c>
-      <c r="I15">
-        <v>0.002154142237867939</v>
-      </c>
-      <c r="J15">
-        <v>0.001437126750390021</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N15">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O15">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P15">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q15">
-        <v>0.0195645082275</v>
+        <v>57.59200867396916</v>
       </c>
       <c r="R15">
-        <v>0.07825803291</v>
+        <v>345.552052043815</v>
       </c>
       <c r="S15">
-        <v>8.434316810259019E-07</v>
+        <v>0.001392124658789407</v>
       </c>
       <c r="T15">
-        <v>3.751768500205893E-07</v>
+        <v>0.0009335696820990276</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H16">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I16">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J16">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N16">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O16">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P16">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q16">
-        <v>27.436360328364</v>
+        <v>3520.826394228007</v>
       </c>
       <c r="R16">
-        <v>164.618161970184</v>
+        <v>31687.43754805206</v>
       </c>
       <c r="S16">
-        <v>0.0011827895311193</v>
+        <v>0.08510606515686236</v>
       </c>
       <c r="T16">
-        <v>0.0007891959606904562</v>
+        <v>0.08560918918958349</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H17">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I17">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J17">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N17">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O17">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P17">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q17">
-        <v>2.378738512021667</v>
+        <v>0.4032110176966667</v>
       </c>
       <c r="R17">
-        <v>21.408646608195</v>
+        <v>2.41926610618</v>
       </c>
       <c r="S17">
-        <v>0.0001025481140944506</v>
+        <v>9.746491107972258E-06</v>
       </c>
       <c r="T17">
-        <v>0.0001026351966564729</v>
+        <v>6.536073151066216E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H18">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I18">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J18">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.934284</v>
       </c>
       <c r="O18">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P18">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q18">
-        <v>10.68927248662</v>
+        <v>0.51604320313</v>
       </c>
       <c r="R18">
-        <v>96.20345237958</v>
+        <v>3.09625921878</v>
       </c>
       <c r="S18">
-        <v>0.0004608176682745004</v>
+        <v>1.247389151062289E-05</v>
       </c>
       <c r="T18">
-        <v>0.0004612089888125019</v>
+        <v>8.365089188375337E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H19">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I19">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J19">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N19">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O19">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P19">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q19">
-        <v>5798.300317709025</v>
+        <v>527.27100200348</v>
       </c>
       <c r="R19">
-        <v>52184.70285938123</v>
+        <v>3163.62601202088</v>
       </c>
       <c r="S19">
-        <v>0.2499664252835278</v>
+        <v>0.01274529193640391</v>
       </c>
       <c r="T19">
-        <v>0.2501786936116727</v>
+        <v>0.008547092436157946</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H20">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I20">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J20">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N20">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O20">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P20">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q20">
-        <v>5.050433091637501</v>
+        <v>1.57318958916875</v>
       </c>
       <c r="R20">
-        <v>30.302598549825</v>
+        <v>6.292758356675</v>
       </c>
       <c r="S20">
-        <v>0.0002177256500831033</v>
+        <v>3.802742898638434E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001452736933017017</v>
+        <v>1.700099415940433E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H21">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I21">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J21">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N21">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O21">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P21">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q21">
-        <v>7082.493487962621</v>
+        <v>96.1752777199725</v>
       </c>
       <c r="R21">
-        <v>63742.44139166357</v>
+        <v>577.051666319835</v>
       </c>
       <c r="S21">
-        <v>0.3053283690520156</v>
+        <v>0.002324766556378312</v>
       </c>
       <c r="T21">
-        <v>0.3055876500428941</v>
+        <v>0.001559006631546829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H22">
+        <v>138.944788</v>
+      </c>
+      <c r="I22">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J22">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2433346666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.730004</v>
+      </c>
+      <c r="O22">
+        <v>0.0006441701120846545</v>
+      </c>
+      <c r="P22">
+        <v>0.0006447102349388058</v>
+      </c>
+      <c r="Q22">
+        <v>11.27002789101689</v>
+      </c>
+      <c r="R22">
+        <v>101.430251019152</v>
+      </c>
+      <c r="S22">
+        <v>0.0002724211933837331</v>
+      </c>
+      <c r="T22">
+        <v>0.0002740316737785357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H23">
+        <v>138.944788</v>
+      </c>
+      <c r="I23">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J23">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.311428</v>
+      </c>
+      <c r="N23">
+        <v>0.934284</v>
+      </c>
+      <c r="O23">
+        <v>0.000824430864760877</v>
+      </c>
+      <c r="P23">
+        <v>0.0008251221323986817</v>
+      </c>
+      <c r="Q23">
+        <v>14.42376581242134</v>
+      </c>
+      <c r="R23">
+        <v>129.813892311792</v>
+      </c>
+      <c r="S23">
+        <v>0.000348653928251527</v>
+      </c>
+      <c r="T23">
+        <v>0.0003507150759509612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H24">
+        <v>138.944788</v>
+      </c>
+      <c r="I24">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J24">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>318.203888</v>
+      </c>
+      <c r="N24">
+        <v>954.611664</v>
+      </c>
+      <c r="O24">
+        <v>0.8423684015377977</v>
+      </c>
+      <c r="P24">
+        <v>0.843074709416338</v>
+      </c>
+      <c r="Q24">
+        <v>14737.59058631192</v>
+      </c>
+      <c r="R24">
+        <v>132638.3152768073</v>
+      </c>
+      <c r="S24">
+        <v>0.356239758583393</v>
+      </c>
+      <c r="T24">
+        <v>0.3583457516594885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H25">
+        <v>138.944788</v>
+      </c>
+      <c r="I25">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J25">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.9494075</v>
+      </c>
+      <c r="N25">
+        <v>1.898815</v>
+      </c>
+      <c r="O25">
+        <v>0.002513328429799062</v>
+      </c>
+      <c r="P25">
+        <v>0.00167695720126921</v>
+      </c>
+      <c r="Q25">
+        <v>43.97174127103667</v>
+      </c>
+      <c r="R25">
+        <v>263.83044762622</v>
+      </c>
+      <c r="S25">
+        <v>0.001062893042329083</v>
+      </c>
+      <c r="T25">
+        <v>0.0007127843856277368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H26">
+        <v>138.944788</v>
+      </c>
+      <c r="I26">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J26">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>58.041021</v>
+      </c>
+      <c r="N26">
+        <v>174.123063</v>
+      </c>
+      <c r="O26">
+        <v>0.1536496690555577</v>
+      </c>
+      <c r="P26">
+        <v>0.1537785010150554</v>
+      </c>
+      <c r="Q26">
+        <v>2688.165786049517</v>
+      </c>
+      <c r="R26">
+        <v>24193.49207444565</v>
+      </c>
+      <c r="S26">
+        <v>0.06497883931881325</v>
+      </c>
+      <c r="T26">
+        <v>0.06536297663757382</v>
       </c>
     </row>
   </sheetData>
